--- a/mbs-perturbation/nano/elm/smote/nano_elm_rbf_linf_smote_results.xlsx
+++ b/mbs-perturbation/nano/elm/smote/nano_elm_rbf_linf_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9850746268656716</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3113207547169811</v>
+        <v>0.2234042553191489</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4731182795698924</v>
+        <v>0.3605150214592275</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8068341377797279</v>
+        <v>0.7581648936170212</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9710144927536232</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3175355450236967</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4785714285714286</v>
+        <v>0.4201680672268907</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7769330349306652</v>
+        <v>0.7504950495049505</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.2406417112299465</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7813486370157819</v>
+        <v>0.6594385026737968</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9807692307692307</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2428571428571429</v>
+        <v>0.2081218274111675</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3893129770992367</v>
+        <v>0.3445378151260504</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7590167548500881</v>
+        <v>0.7269569863745657</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2236842105263158</v>
+        <v>0.2369668246445498</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3617021276595745</v>
+        <v>0.3831417624521073</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7616516037568669</v>
+        <v>0.7669781344248168</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.976260558966594</v>
+        <v>0.9668352736518132</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2727380672101931</v>
+        <v>0.2358809777750166</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4251563471954111</v>
+        <v>0.3785956101759321</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7771568336666259</v>
+        <v>0.7324067133190303</v>
       </c>
     </row>
   </sheetData>
